--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_3885.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_3885.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3885</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Nathan Michael Lyon</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Off Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -504,7 +569,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3393</t>
+          <t>3393</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -556,7 +621,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3402</t>
+          <t>3402</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -596,7 +661,6 @@
           <t>3</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>25/08/2014</t>
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3659</t>
+          <t>3659</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -656,7 +720,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3668</t>
+          <t>3668</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -696,7 +760,6 @@
           <t>5</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr"/>
       <c r="C6" t="inlineStr">
         <is>
           <t>02/09/2014</t>
@@ -704,7 +767,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3669</t>
+          <t>3669</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -756,7 +819,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3673</t>
+          <t>3673</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -796,7 +859,6 @@
           <t>7</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr">
         <is>
           <t>07/10/2014</t>
@@ -804,7 +866,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3677</t>
+          <t>3677</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -844,7 +906,6 @@
           <t>8</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr">
         <is>
           <t>10/10/2014</t>
@@ -852,7 +913,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3679</t>
+          <t>3679</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -892,7 +953,6 @@
           <t>9</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr">
         <is>
           <t>20/01/2016</t>
@@ -900,7 +960,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3877</t>
+          <t>3877</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -940,7 +1000,6 @@
           <t>10</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr"/>
       <c r="C11" t="inlineStr">
         <is>
           <t>23/01/2016</t>
@@ -948,7 +1007,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3878</t>
+          <t>3878</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -988,7 +1047,6 @@
           <t>11</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr"/>
       <c r="C12" t="inlineStr">
         <is>
           <t>05/06/2016</t>
@@ -996,7 +1054,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3893</t>
+          <t>3893</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1048,7 +1106,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3894</t>
+          <t>3894</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1100,7 +1158,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3924</t>
+          <t>3924</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1152,7 +1210,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4169</t>
+          <t>4169</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1204,7 +1262,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4170</t>
+          <t>4170</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1244,7 +1302,6 @@
           <t>16</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>12/01/2019</t>
@@ -1252,7 +1309,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4234</t>
+          <t>4234</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1304,7 +1361,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4235</t>
+          <t>4235</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1356,7 +1413,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4263</t>
+          <t>4263</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1396,7 +1453,6 @@
           <t>19</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>08/03/2019</t>
@@ -1404,7 +1460,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4266</t>
+          <t>4266</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1456,7 +1512,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4270</t>
+          <t>4270</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1496,7 +1552,6 @@
           <t>21</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr"/>
       <c r="C22" t="inlineStr">
         <is>
           <t>22/03/2019</t>
@@ -1504,7 +1559,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4273</t>
+          <t>4273</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1544,7 +1599,6 @@
           <t>22</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr"/>
       <c r="C23" t="inlineStr">
         <is>
           <t>23/03/2019</t>
@@ -1552,7 +1606,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4274</t>
+          <t>4274</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1592,7 +1646,6 @@
           <t>23</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr"/>
       <c r="C24" t="inlineStr">
         <is>
           <t>27/03/2019</t>
@@ -1600,7 +1653,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4275</t>
+          <t>4275</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1640,7 +1693,6 @@
           <t>24</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>29/03/2019</t>
@@ -1648,7 +1700,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4276</t>
+          <t>4276</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1688,7 +1740,6 @@
           <t>25</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr"/>
       <c r="C26" t="inlineStr">
         <is>
           <t>31/03/2019</t>
@@ -1696,7 +1747,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4277</t>
+          <t>4277</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1736,7 +1787,6 @@
           <t>26</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr"/>
       <c r="C27" t="inlineStr">
         <is>
           <t>25/06/2019</t>
@@ -1744,7 +1794,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4336</t>
+          <t>4336</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1796,7 +1846,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4341</t>
+          <t>4341</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1848,7 +1898,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4351</t>
+          <t>4351</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1900,7 +1950,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4354</t>
+          <t>4354</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1939,7 +1989,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1961,7 +2011,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -1998,7 +2048,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3393</t>
+          <t>3393</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2035,7 +2085,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3402</t>
+          <t>3402</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -2072,7 +2122,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3659</t>
+          <t>3659</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -2109,7 +2159,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3668</t>
+          <t>3668</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2146,7 +2196,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3669</t>
+          <t>3669</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2183,7 +2233,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3673</t>
+          <t>3673</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -2220,7 +2270,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3677</t>
+          <t>3677</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -2257,7 +2307,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3679</t>
+          <t>3679</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -2294,7 +2344,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3877</t>
+          <t>3877</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -2331,7 +2381,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3878</t>
+          <t>3878</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -2368,7 +2418,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3893</t>
+          <t>3893</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -2405,7 +2455,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3894</t>
+          <t>3894</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -2442,7 +2492,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3924</t>
+          <t>3924</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2479,7 +2529,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4169</t>
+          <t>4169</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2516,7 +2566,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4170</t>
+          <t>4170</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2553,7 +2603,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4234</t>
+          <t>4234</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2590,7 +2640,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4235</t>
+          <t>4235</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2627,7 +2677,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4263</t>
+          <t>4263</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2664,7 +2714,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4266</t>
+          <t>4266</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2701,7 +2751,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4270</t>
+          <t>4270</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2738,7 +2788,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4273</t>
+          <t>4273</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2775,7 +2825,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4274</t>
+          <t>4274</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2812,7 +2862,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4275</t>
+          <t>4275</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -2849,7 +2899,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4276</t>
+          <t>4276</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2886,7 +2936,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4277</t>
+          <t>4277</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2923,7 +2973,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4336</t>
+          <t>4336</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -2960,7 +3010,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4341</t>
+          <t>4341</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2997,7 +3047,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4351</t>
+          <t>4351</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -3034,7 +3084,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4354</t>
+          <t>4354</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -3062,6 +3112,463 @@
           <t>0/49</t>
         </is>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3878</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3893</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3894</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>21.13%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3924</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4169</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.49%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4170</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4234</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4235</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2.48%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4263</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4266</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.37%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4270</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9</v>
+      </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4273</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4274</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9</v>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4275</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4276</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4277</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4336</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>11</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4341</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>11</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2.24%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4351</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4354</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_3885.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_3885.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3170,15 +3171,398 @@
           <t>3878</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>3893</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3894</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>21.13%</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>3924</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4169</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>0.49%</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4170</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>9</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4234</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4235</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>10</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>2.48%</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4263</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4266</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>0.37%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4270</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>9</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4273</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>9</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4274</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>9</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4275</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4276</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4277</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4336</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>11</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4341</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>11</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>2.24%</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4351</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4354</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3878</t>
+        </is>
+      </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -3188,13 +3572,6 @@
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3202,27 +3579,14 @@
           <t>3894</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>10</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>21.13%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3232,13 +3596,14 @@
           <t>3924</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3248,29 +3613,8 @@
           <t>4169</t>
         </is>
       </c>
-      <c r="B6" t="n">
-        <v>10</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.49%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3278,17 +3622,12 @@
           <t>4170</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>9</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -3296,15 +3635,12 @@
           <t>4234</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr"/>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -3312,29 +3648,8 @@
           <t>4235</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>10</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2.48%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -3342,15 +3657,14 @@
           <t>4263</t>
         </is>
       </c>
-      <c r="B10" t="n">
-        <v>10</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3360,27 +3674,14 @@
           <t>4266</t>
         </is>
       </c>
-      <c r="B11" t="n">
-        <v>10</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0.37%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3390,15 +3691,14 @@
           <t>4270</t>
         </is>
       </c>
-      <c r="B12" t="n">
-        <v>9</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3408,15 +3708,14 @@
           <t>4273</t>
         </is>
       </c>
-      <c r="B13" t="n">
-        <v>9</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3426,15 +3725,14 @@
           <t>4274</t>
         </is>
       </c>
-      <c r="B14" t="n">
-        <v>9</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3444,13 +3742,14 @@
           <t>4275</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3460,17 +3759,8 @@
           <t>4276</t>
         </is>
       </c>
-      <c r="B16" t="n">
-        <v>10</v>
-      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3478,15 +3768,14 @@
           <t>4277</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>10</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3496,25 +3785,12 @@
           <t>4336</t>
         </is>
       </c>
-      <c r="B18" t="n">
-        <v>11</v>
-      </c>
-      <c r="C18" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -3522,27 +3798,14 @@
           <t>4341</t>
         </is>
       </c>
-      <c r="B19" t="n">
-        <v>11</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2.24%</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>10.00%</t>
         </is>
       </c>
     </row>
@@ -3552,11 +3815,16 @@
           <t>4351</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>20.00%</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3564,11 +3832,12 @@
           <t>4354</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr"/>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_3885.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_3885.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3171,6 +3170,10 @@
           <t>3878</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
+      <c r="C2" t="inlineStr"/>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3183,6 +3186,10 @@
           <t>3893</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="inlineStr"/>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3225,6 +3232,10 @@
           <t>3924</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3270,6 +3281,9 @@
       <c r="B7" t="n">
         <v>9</v>
       </c>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3282,6 +3296,10 @@
           <t>4234</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3327,6 +3345,9 @@
       <c r="B10" t="n">
         <v>10</v>
       </c>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3372,6 +3393,9 @@
       <c r="B12" t="n">
         <v>9</v>
       </c>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3387,6 +3411,9 @@
       <c r="B13" t="n">
         <v>9</v>
       </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3402,6 +3429,9 @@
       <c r="B14" t="n">
         <v>9</v>
       </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3414,6 +3444,10 @@
           <t>4275</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3429,6 +3463,9 @@
       <c r="B16" t="n">
         <v>10</v>
       </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3444,6 +3481,9 @@
       <c r="B17" t="n">
         <v>10</v>
       </c>
+      <c r="C17" t="inlineStr"/>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3469,6 +3509,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3511,6 +3552,11 @@
           <t>4351</t>
         </is>
       </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr"/>
+      <c r="F20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -3518,326 +3564,11 @@
           <t>4354</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>3878</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>3893</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>3894</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>3924</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4169</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4170</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4234</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4235</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4263</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4266</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4270</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4273</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4274</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4275</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4276</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4277</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4336</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4341</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>10.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4351</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4354</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/AUS/PlayerPerformance_3885.xlsx
+++ b/bin/sheets/main_db/teams/AUS/PlayerPerformance_3885.xlsx
@@ -3124,7 +3124,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3167,12 +3167,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>3878</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
+          <t>3393</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>11</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="inlineStr">
         <is>
@@ -3183,13 +3193,27 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3893</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+          <t>3402</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>11</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1.82%</t>
+        </is>
+      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3199,27 +3223,15 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3894</t>
+          <t>3659</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>21.13%</t>
-        </is>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3229,13 +3241,27 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>3924</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr"/>
+          <t>3668</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>11</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>3.83%</t>
+        </is>
+      </c>
       <c r="F5" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3245,27 +3271,15 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4169</t>
+          <t>3669</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>0.49%</t>
-        </is>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3275,12 +3289,10 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4170</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>9</v>
-      </c>
+          <t>3673</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
@@ -3293,7 +3305,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4234</t>
+          <t>3677</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
@@ -3309,27 +3321,13 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4235</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>10</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2.48%</t>
-        </is>
-      </c>
+          <t>3679</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3339,12 +3337,10 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4263</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>10</v>
-      </c>
+          <t>3877</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
@@ -3357,27 +3353,13 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4266</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>0.37%</t>
-        </is>
-      </c>
+          <t>3878</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3387,15 +3369,27 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4270</t>
+          <t>3893</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.13%</t>
+        </is>
+      </c>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3405,12 +3399,10 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4273</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>9</v>
-      </c>
+          <t>3894</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr"/>
@@ -3423,15 +3415,27 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4274</t>
+          <t>3924</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>0.49%</t>
+        </is>
+      </c>
       <c r="F14" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3441,10 +3445,12 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4275</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
+          <t>4169</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>9</v>
+      </c>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr"/>
@@ -3457,12 +3463,10 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4276</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>10</v>
-      </c>
+          <t>4170</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
@@ -3475,15 +3479,27 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4277</t>
+          <t>4234</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>10</v>
       </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>2.48%</t>
+        </is>
+      </c>
       <c r="F17" t="inlineStr">
         <is>
           <t>NO</t>
@@ -3493,22 +3509,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4336</t>
+          <t>4235</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>11</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
@@ -3519,11 +3527,11 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4341</t>
+          <t>4263</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -3537,7 +3545,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>2.24%</t>
+          <t>0.37%</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -3549,26 +3557,200 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4351</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
+          <t>4266</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>9</v>
+      </c>
       <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr"/>
-      <c r="F20" t="inlineStr"/>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4354</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
+          <t>4270</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>9</v>
+      </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>4273</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>9</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr"/>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>4274</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr"/>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr"/>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>4275</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>10</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr"/>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>4276</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>10</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>4277</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>11</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>4336</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>11</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>2.24%</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>4341</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
+      <c r="F28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>4351</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>4354</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr"/>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr"/>
+      <c r="F30" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
